--- a/price_comparison_report.xlsx
+++ b/price_comparison_report.xlsx
@@ -558,7 +558,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Incheon (KRINC) / Inchon (Incheon) - KRINC</t>
+          <t>Incheon / Incheon (KRINC)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -724,7 +724,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Onne / Onne (NGONN)</t>
+          <t>Onne (NGONN) / Onne</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -1048,7 +1048,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Abu Dhabi - AEABD / Abu Dhabi - AEAUH</t>
+          <t>Abu Dhabi - AEAUH / Abu Dhabi - AEABD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -1206,7 +1206,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Suape (BRSUA) / SUAPE (BRSUA)</t>
+          <t>SUAPE (BRSUA) / Suape (BRSUA)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -1953,23 +1953,23 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Hamburg (DEHAM)</t>
+          <t>Bremerhaven (DEBRV)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Hamburg (DEHAM)</t>
+          <t>Bremerhaven (DEBRV)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hamburg (DEHAM)</t>
+          <t>Bremerhaven (DEBRV)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hamburg (DEHAM)</t>
+          <t>Bremerhaven (DEBRV)</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1979,10 +1979,10 @@
         <v>1600</v>
       </c>
       <c r="H19" t="n">
+        <v>2300</v>
+      </c>
+      <c r="I19" t="n">
         <v>2350</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2600</v>
       </c>
       <c r="J19" t="n">
         <v>2630</v>
@@ -2036,23 +2036,23 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bremerhaven (DEBRV)</t>
+          <t>Hamburg (DEHAM)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Bremerhaven (DEBRV)</t>
+          <t>Hamburg (DEHAM)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Bremerhaven (DEBRV)</t>
+          <t>Hamburg (DEHAM)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Bremerhaven (DEBRV)</t>
+          <t>Hamburg (DEHAM)</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2062,10 +2062,10 @@
         <v>1600</v>
       </c>
       <c r="H20" t="n">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="I20" t="n">
-        <v>2350</v>
+        <v>2600</v>
       </c>
       <c r="J20" t="n">
         <v>2630</v>
@@ -2277,7 +2277,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Shanghai - CNSHA / Shanghai (CNSHA)</t>
+          <t>Shanghai (CNSHA) / Shanghai - CNSHA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -2360,7 +2360,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Gdynia / Gdynia (PLGDY)</t>
+          <t>Gdynia (PLGDY) / Gdynia</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -2767,7 +2767,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Manila - PHMNL / Manila (PHMNL)</t>
+          <t>Manila / Manila (PHMNL)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -3265,7 +3265,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fos Sur Mer (FRFOS) / Fos sur Mer (FRFOS)</t>
+          <t>Fos sur Mer (FRFOS) / Fos Sur Mer (FRFOS)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -3348,7 +3348,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Copenhagen (DKCPH) / Copenhagen</t>
+          <t>Copenhagen / Copenhagen (DKCPH)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -3429,7 +3429,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Constanta (ROCND) / Constanta</t>
+          <t>Constanta / Constanta (ROCND)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -3504,7 +3504,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>New Delhi - INDEL / New Delhi</t>
+          <t>New Delhi / New Delhi - INDEL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -3990,7 +3990,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Keelung (TWKEL) / Keelung - TWKEL</t>
+          <t>Keelung - TWKEL / Keelung (TWKEL)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -4322,7 +4322,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Grangemouth / Grangemouth (GBGRG)</t>
+          <t>Grangemouth (GBGRG) / Grangemouth</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -4397,7 +4397,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Felixstowe (GBFXT) / Felixstowe</t>
+          <t>Felixstowe / Felixstowe (GBFXT)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -4480,19 +4480,23 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Puerto Cortes (HNPCR) / Puerto Cortes</t>
+          <t>San Juan (PRSJU)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Puerto Cortes (HNPCR)</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>San Juan (PRSJU)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>San Juan (PRSJU)</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Puerto Cortes</t>
+          <t>San Juan (PRSJU)</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4501,8 +4505,12 @@
       <c r="G50" t="n">
         <v>3897</v>
       </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>4400</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5000</v>
+      </c>
       <c r="J50" t="n">
         <v>5050</v>
       </c>
@@ -4544,34 +4552,30 @@
         </is>
       </c>
       <c r="V50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>fuzzy</t>
+          <t>exact</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>San Juan (PRSJU)</t>
+          <t>Puerto Cortes (HNPCR) / Puerto Cortes</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>San Juan (PRSJU)</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>San Juan (PRSJU)</t>
-        </is>
-      </c>
+          <t>Puerto Cortes (HNPCR)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>San Juan (PRSJU)</t>
+          <t>Puerto Cortes</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -4580,12 +4584,8 @@
       <c r="G51" t="n">
         <v>3897</v>
       </c>
-      <c r="H51" t="n">
-        <v>4400</v>
-      </c>
-      <c r="I51" t="n">
-        <v>5000</v>
-      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>5050</v>
       </c>
@@ -4627,11 +4627,11 @@
         </is>
       </c>
       <c r="V51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>fuzzy</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Fremantle (AUFRE) / Fremantle</t>
+          <t>Fremantle / Fremantle (AUFRE)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -4871,7 +4871,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Tauranga (NZTRG) / Tauranga</t>
+          <t>Tauranga / Tauranga (NZTRG)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -5029,7 +5029,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Santo Domingo (DOSDQ) / Santo Domingo</t>
+          <t>Santo Domingo / Santo Domingo (DOSDQ)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -5819,7 +5819,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Rio de Janerio (BRRIO ) / Rio de Janeiro (BRGIG)</t>
+          <t>Rio de Janeiro (BRGIG) / Rio de Janerio (BRRIO )</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -6060,7 +6060,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Naples (ITNAP) / Napoles</t>
+          <t>Napoles / Naples (ITNAP)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -6135,7 +6135,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Shuwaikh / Shuwaikh (KWSWK)</t>
+          <t>Shuwaikh (KWSWK) / Shuwaikh</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -6210,7 +6210,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Riyadh / Riyadh (SARUH)</t>
+          <t>Riyadh (SARUH) / Riyadh</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -7008,7 +7008,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Montoir DE BRETAGNE (FRMTX) / Montoir de Bretagne (FRMTX)</t>
+          <t>Montoir de Bretagne (FRMTX) / Montoir DE BRETAGNE (FRMTX)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -7233,7 +7233,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Long Beach CA (USLGB) / Long Beach (USLGB)</t>
+          <t>Long Beach (USLGB) / Long Beach CA (USLGB)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -7762,7 +7762,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Chicago (USCHI) / Chicago (via NYC)</t>
+          <t>Chicago (via NYC) / Chicago (USCHI)</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
@@ -7837,7 +7837,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Charlotte / Charlotte (USCLT)</t>
+          <t>Charlotte (USCLT) / Charlotte</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
@@ -8366,36 +8366,36 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Estocolmo(SESTO) / Estocolmo (SESTO)</t>
+          <t>Montreal Port / Montreal Port, CA (CAMTR)</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Estocolmo(SESTO)</t>
-        </is>
-      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Montreal Port, CA (CAMTR)</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Estocolmo (SESTO)</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="n">
-        <v>3700</v>
-      </c>
-      <c r="I100" t="n">
-        <v>4000</v>
-      </c>
+          <t>Montreal Port</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>6062</v>
+      </c>
+      <c r="G100" t="n">
+        <v>6201</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
-        <v>3700</v>
+        <v>6062</v>
       </c>
       <c r="M100" t="n">
-        <v>3700</v>
+        <v>6062</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
@@ -8405,14 +8405,14 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>FCL</t>
+          <t>AiresDS</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>4000</v>
+        <v>6201</v>
       </c>
       <c r="R100" t="n">
-        <v>4000</v>
+        <v>6201</v>
       </c>
       <c r="S100" t="n">
         <v>0</v>
@@ -8422,7 +8422,7 @@
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>FCL</t>
+          <t>AiresDS</t>
         </is>
       </c>
       <c r="V100" t="n">
@@ -8437,36 +8437,36 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Santiago (CLSCL)</t>
+          <t>Santa Cruz, Tenerife / Santa Cruz Tenerife (ESSCT)</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Santiago (CLSCL)</t>
-        </is>
-      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Santa Cruz Tenerife (ESSCT)</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Santiago (CLSCL)</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="n">
-        <v>4700</v>
-      </c>
-      <c r="I101" t="n">
-        <v>5200</v>
-      </c>
+          <t>Santa Cruz, Tenerife</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>1772</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1540</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
-        <v>4700</v>
+        <v>1772</v>
       </c>
       <c r="M101" t="n">
-        <v>4700</v>
+        <v>1772</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
@@ -8476,14 +8476,14 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>FCL</t>
+          <t>AiresDS</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>5200</v>
+        <v>1540</v>
       </c>
       <c r="R101" t="n">
-        <v>5200</v>
+        <v>1540</v>
       </c>
       <c r="S101" t="n">
         <v>0</v>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>FCL</t>
+          <t>AiresDS</t>
         </is>
       </c>
       <c r="V101" t="n">
@@ -8508,36 +8508,36 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Santa Cruz Tenerife (ESSCT) / Santa Cruz, Tenerife</t>
+          <t>Puerto de Lanzarote, Islas Canarias (Arrecife de lanzarote) / Puerto de Lanzarote, Islas Canarias</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Santa Cruz Tenerife (ESSCT)</t>
+          <t>Puerto de Lanzarote, Islas Canarias (Arrecife de lanzarote)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Santa Cruz, Tenerife</t>
+          <t>Puerto de Lanzarote, Islas Canarias</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1772</v>
+        <v>3338</v>
       </c>
       <c r="G102" t="n">
-        <v>1540</v>
+        <v>4285</v>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>1772</v>
+        <v>3338</v>
       </c>
       <c r="M102" t="n">
-        <v>1772</v>
+        <v>3338</v>
       </c>
       <c r="N102" t="n">
         <v>0</v>
@@ -8551,10 +8551,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>1540</v>
+        <v>4285</v>
       </c>
       <c r="R102" t="n">
-        <v>1540</v>
+        <v>4285</v>
       </c>
       <c r="S102" t="n">
         <v>0</v>
@@ -8579,36 +8579,36 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Puerto de Lanzarote, Islas Canarias (Arrecife de lanzarote) / Puerto de Lanzarote, Islas Canarias</t>
+          <t>Estocolmo (SESTO) / Estocolmo(SESTO)</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Puerto de Lanzarote, Islas Canarias (Arrecife de lanzarote)</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Estocolmo(SESTO)</t>
+        </is>
+      </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Puerto de Lanzarote, Islas Canarias</t>
-        </is>
-      </c>
-      <c r="F103" t="n">
-        <v>3338</v>
-      </c>
-      <c r="G103" t="n">
-        <v>4285</v>
-      </c>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
+          <t>Estocolmo (SESTO)</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="n">
+        <v>3700</v>
+      </c>
+      <c r="I103" t="n">
+        <v>4000</v>
+      </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
-        <v>3338</v>
+        <v>3700</v>
       </c>
       <c r="M103" t="n">
-        <v>3338</v>
+        <v>3700</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
@@ -8618,14 +8618,14 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>AiresDS</t>
+          <t>FCL</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>4285</v>
+        <v>4000</v>
       </c>
       <c r="R103" t="n">
-        <v>4285</v>
+        <v>4000</v>
       </c>
       <c r="S103" t="n">
         <v>0</v>
@@ -8635,7 +8635,7 @@
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>AiresDS</t>
+          <t>FCL</t>
         </is>
       </c>
       <c r="V103" t="n">
@@ -8650,36 +8650,36 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Montreal Port, CA (CAMTR) / Montreal Port</t>
+          <t>Santiago (CLSCL)</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Montreal Port, CA (CAMTR)</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Santiago (CLSCL)</t>
+        </is>
+      </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Montreal Port</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
-        <v>6062</v>
-      </c>
-      <c r="G104" t="n">
-        <v>6201</v>
-      </c>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
+          <t>Santiago (CLSCL)</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="n">
+        <v>4700</v>
+      </c>
+      <c r="I104" t="n">
+        <v>5200</v>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>6062</v>
+        <v>4700</v>
       </c>
       <c r="M104" t="n">
-        <v>6062</v>
+        <v>4700</v>
       </c>
       <c r="N104" t="n">
         <v>0</v>
@@ -8689,14 +8689,14 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>AiresDS</t>
+          <t>FCL</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>6201</v>
+        <v>5200</v>
       </c>
       <c r="R104" t="n">
-        <v>6201</v>
+        <v>5200</v>
       </c>
       <c r="S104" t="n">
         <v>0</v>
@@ -8706,7 +8706,7 @@
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>AiresDS</t>
+          <t>FCL</t>
         </is>
       </c>
       <c r="V104" t="n">
@@ -8777,25 +8777,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rades (TNRDS)</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rades (TNRDS)</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FCL</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2400</v>
+        <v>4940</v>
       </c>
       <c r="F2" t="n">
-        <v>3950</v>
+        <v>5015</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -8806,12 +8806,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Manaus (BRMAO)</t>
+          <t>Geneve (CHGVA)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Manaus (BRMAO)</t>
+          <t>Geneve (CHGVA)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -8821,10 +8821,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3400</v>
+        <v>4650</v>
       </c>
       <c r="F3" t="n">
-        <v>3900</v>
+        <v>5250</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -8835,26 +8835,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Vienna (ATVIE)</t>
+          <t>Lagos</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vienna (ATVIE)</t>
+          <t>Lagos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FCL</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>2750</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3250</v>
-      </c>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>Only available in one source</t>
@@ -8864,12 +8860,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Toronto (CATOR)</t>
+          <t>Alger (DZALG)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Toronto (CATOR)</t>
+          <t>Alger (DZALG)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -8879,10 +8875,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6250</v>
+        <v>2950</v>
       </c>
       <c r="F5" t="n">
-        <v>6650</v>
+        <v>3450</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -8893,12 +8889,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Managua (NIMGA)</t>
+          <t>Willemstad (CWWIL)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Managua (NIMGA)</t>
+          <t>Willemstad (CWWIL)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -8908,10 +8904,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6000</v>
+        <v>6900</v>
       </c>
       <c r="F6" t="n">
-        <v>7600</v>
+        <v>8250</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -8922,12 +8918,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Salt Lake City (USSLC)</t>
+          <t>Kansas City (USKCK)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Salt Lake City (USSLC)</t>
+          <t>Kansas City (USKCK)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -8937,10 +8933,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7050</v>
+        <v>7150</v>
       </c>
       <c r="F7" t="n">
-        <v>7500</v>
+        <v>7350</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -8951,25 +8947,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Geneve (CHGVA)</t>
+          <t>Toronto Terminal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Geneve (CHGVA)</t>
+          <t>Toronto Terminal</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FCL</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4650</v>
+        <v>7600</v>
       </c>
       <c r="F8" t="n">
-        <v>5250</v>
+        <v>7800</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -9009,12 +9005,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tunes (Tunis) - TUTUN</t>
+          <t>Mexico city (MXMEX)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tunes (Tunis) - TUTUN</t>
+          <t>Mexico city (MXMEX)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -9024,10 +9020,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2300</v>
+        <v>4550</v>
       </c>
       <c r="F10" t="n">
-        <v>3800</v>
+        <v>5200</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -9067,25 +9063,25 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Puerto Willemstad, Curazao</t>
+          <t>Amsterdam (NLAMS)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Puerto Willemstad, Curazao</t>
+          <t>Amsterdam (NLAMS)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>FCL</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>7460</v>
+        <v>2550</v>
       </c>
       <c r="F12" t="n">
-        <v>8650</v>
+        <v>2850</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -9096,12 +9092,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Calgary (CACAL)</t>
+          <t>Rades (TNRDS)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Calgary (CACAL)</t>
+          <t>Rades (TNRDS)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -9111,10 +9107,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6400</v>
+        <v>2400</v>
       </c>
       <c r="F13" t="n">
-        <v>8100</v>
+        <v>3950</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -9125,12 +9121,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Thessaloniki (GRSKG)</t>
+          <t>Dar Es Salamm (TZDAR)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Thessaloniki (GRSKG)</t>
+          <t>Dar Es Salamm (TZDAR)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -9140,10 +9136,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3100</v>
+        <v>5150</v>
       </c>
       <c r="F14" t="n">
-        <v>4250</v>
+        <v>6000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -9154,22 +9150,26 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Edmonton Terminal</t>
+          <t>Dakar</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Edmonton Terminal</t>
+          <t>Dakar</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+          <t>FCL</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3350</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4500</v>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>Only available in one source</t>
@@ -9179,25 +9179,25 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Toronto Terminal</t>
+          <t>Montreal (CAMTR)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Toronto Terminal</t>
+          <t>Montreal (CAMTR)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>FCL</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>7600</v>
+        <v>6250</v>
       </c>
       <c r="F16" t="n">
-        <v>7800</v>
+        <v>6650</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -9208,25 +9208,25 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cartagena Port Colombia (COCTG)</t>
+          <t>Calgary (CACAL)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cartagena Port Colombia (COCTG)</t>
+          <t>Calgary (CACAL)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AiresDS</t>
+          <t>FCL</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3019</v>
+        <v>6400</v>
       </c>
       <c r="F17" t="n">
-        <v>3118</v>
+        <v>8100</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -9237,12 +9237,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Paris (FRPAR)</t>
+          <t>Piraeus (GRPIR)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Paris (FRPAR)</t>
+          <t>Piraeus (GRPIR)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -9252,10 +9252,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="F18" t="n">
-        <v>2950</v>
+        <v>2750</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -9266,12 +9266,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Hammad Port - QAHMD</t>
+          <t>Aqaba - JOAQJ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hammad Port - QAHMD</t>
+          <t>Aqaba - JOAQJ</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -9281,10 +9281,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5100</v>
+        <v>5050</v>
       </c>
       <c r="F19" t="n">
-        <v>7300</v>
+        <v>7250</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -9295,12 +9295,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Tegucigalpa (HNTGU)</t>
+          <t>Tunes (Tunis) - TUTUN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tegucigalpa (HNTGU)</t>
+          <t>Tunes (Tunis) - TUTUN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -9310,10 +9310,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5600</v>
+        <v>2300</v>
       </c>
       <c r="F20" t="n">
-        <v>6150</v>
+        <v>3800</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -9324,12 +9324,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dakar</t>
+          <t>Apapa (NGAPP)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Dakar</t>
+          <t>Apapa (NGAPP)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -9339,10 +9339,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3350</v>
+        <v>4550</v>
       </c>
       <c r="F21" t="n">
-        <v>4500</v>
+        <v>5700</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -9353,12 +9353,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Luxemburgo</t>
+          <t>Winnipeg Terminal</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Luxemburgo</t>
+          <t>Winnipeg Terminal</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -9368,10 +9368,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3910</v>
+        <v>3690</v>
       </c>
       <c r="F22" t="n">
-        <v>4075</v>
+        <v>4200</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -9382,12 +9382,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Tanger (MAPTM)</t>
+          <t>Tianjin - CNTXG</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tanger (MAPTM)</t>
+          <t>Tianjin - CNTXG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -9397,10 +9397,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2550</v>
+        <v>2150</v>
       </c>
       <c r="F23" t="n">
-        <v>2950</v>
+        <v>2300</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -9411,12 +9411,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Miami FL</t>
+          <t>Port of Spain (TTPOS)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Miami FL</t>
+          <t>Port of Spain (TTPOS)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -9426,10 +9426,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4750</v>
+        <v>5000</v>
       </c>
       <c r="F24" t="n">
-        <v>5000</v>
+        <v>5400</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -9440,12 +9440,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Beirut - LBBEY</t>
+          <t>Hong Kong - HKHKG</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Beirut - LBBEY</t>
+          <t>Hong Kong - HKHKG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -9455,10 +9455,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3200</v>
+        <v>1900</v>
       </c>
       <c r="F25" t="n">
-        <v>3700</v>
+        <v>2100</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -9469,12 +9469,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Itajai (BRITJ)</t>
+          <t>Poti - GEPTI</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Itajai (BRITJ)</t>
+          <t>Poti - GEPTI</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -9484,10 +9484,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1650</v>
+        <v>2300</v>
       </c>
       <c r="F26" t="n">
-        <v>2000</v>
+        <v>2550</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -9498,12 +9498,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Gdansk (PLGDN)</t>
+          <t>Itajai (BRITJ)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Gdansk (PLGDN)</t>
+          <t>Itajai (BRITJ)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -9513,10 +9513,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2050</v>
+        <v>1650</v>
       </c>
       <c r="F27" t="n">
-        <v>2550</v>
+        <v>2000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -9527,12 +9527,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Jeddah - SAJED</t>
+          <t>Boston (USBOS)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Jeddah - SAJED</t>
+          <t>Boston (USBOS)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -9542,10 +9542,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2900</v>
+        <v>5200</v>
       </c>
       <c r="F28" t="n">
-        <v>2750</v>
+        <v>6250</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -9556,12 +9556,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Mexico city (MXMEX)</t>
+          <t>Regina</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mexico city (MXMEX)</t>
+          <t>Regina</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -9571,10 +9571,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4550</v>
+        <v>7150</v>
       </c>
       <c r="F29" t="n">
-        <v>5200</v>
+        <v>8350</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -9585,12 +9585,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Adelaide (AUADL)</t>
+          <t>Salt Lake City (USSLC)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Adelaide (AUADL)</t>
+          <t>Salt Lake City (USSLC)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -9600,10 +9600,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2350</v>
+        <v>7050</v>
       </c>
       <c r="F30" t="n">
-        <v>2350</v>
+        <v>7500</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -9614,25 +9614,25 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Bremen</t>
+          <t>Gdansk (PLGDN)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bremen</t>
+          <t>Gdansk (PLGDN)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>FCL</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3180</v>
+        <v>2050</v>
       </c>
       <c r="F31" t="n">
-        <v>3380</v>
+        <v>2550</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -9643,12 +9643,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Montreal (CAMTR)</t>
+          <t>Nhava Sheva - INNSA</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Montreal (CAMTR)</t>
+          <t>Nhava Sheva - INNSA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -9658,10 +9658,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6250</v>
+        <v>2850</v>
       </c>
       <c r="F32" t="n">
-        <v>6650</v>
+        <v>5450</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -9672,12 +9672,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Bassens</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Bassens</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -9686,12 +9686,8 @@
           <t>Silver</t>
         </is>
       </c>
-      <c r="E33" t="n">
-        <v>4940</v>
-      </c>
-      <c r="F33" t="n">
-        <v>5015</v>
-      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>Only available in one source</t>
@@ -9701,12 +9697,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Liverpool (GBLIV)</t>
+          <t>Dubai - AEDXB</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Liverpool (GBLIV)</t>
+          <t>Dubai - AEDXB</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -9716,10 +9712,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2550</v>
+        <v>3100</v>
       </c>
       <c r="F34" t="n">
-        <v>2750</v>
+        <v>2800</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -9730,12 +9726,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Yokohama - JPYOK</t>
+          <t>Managua (NIMGA)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Yokohama - JPYOK</t>
+          <t>Managua (NIMGA)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -9745,10 +9741,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2150</v>
+        <v>6000</v>
       </c>
       <c r="F35" t="n">
-        <v>2300</v>
+        <v>7600</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -9759,12 +9755,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Dubai - AEDXB</t>
+          <t>Paris (FRPAR)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Dubai - AEDXB</t>
+          <t>Paris (FRPAR)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -9774,10 +9770,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="F36" t="n">
-        <v>2800</v>
+        <v>2950</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -9788,25 +9784,25 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Praga (CZPRG)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Praga (CZPRG)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>FCL</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3360</v>
+        <v>3100</v>
       </c>
       <c r="F37" t="n">
-        <v>3745</v>
+        <v>3600</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -9817,12 +9813,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Boston (USBOS)</t>
+          <t>cincinnati (USCVG)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Boston (USBOS)</t>
+          <t>cincinnati (USCVG)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -9832,10 +9828,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5200</v>
+        <v>6900</v>
       </c>
       <c r="F38" t="n">
-        <v>6250</v>
+        <v>7150</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -9846,25 +9842,25 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Bruselas (BEBRU)</t>
+          <t>Puerto Willemstad, Curazao</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bruselas (BEBRU)</t>
+          <t>Puerto Willemstad, Curazao</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FCL</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3000</v>
+        <v>7460</v>
       </c>
       <c r="F39" t="n">
-        <v>3450</v>
+        <v>8650</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -9875,12 +9871,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Amsterdam (NLAMS)</t>
+          <t>Johannesburg (ZAJBN)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Amsterdam (NLAMS)</t>
+          <t>Johannesburg (ZAJBN)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -9890,10 +9886,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2550</v>
+        <v>3100</v>
       </c>
       <c r="F40" t="n">
-        <v>2850</v>
+        <v>3650</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -9904,12 +9900,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Baton Rouge (USBTR)</t>
+          <t>Minneapolis (USMES)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Baton Rouge (USBTR)</t>
+          <t>Minneapolis (USMES)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -9919,10 +9915,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="F41" t="n">
-        <v>5700</v>
+        <v>7850</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -9933,12 +9929,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Rabat (MARBA)</t>
+          <t>Liverpool (GBLIV)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Rabat (MARBA)</t>
+          <t>Liverpool (GBLIV)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -9948,10 +9944,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5000</v>
+        <v>2550</v>
       </c>
       <c r="F42" t="n">
-        <v>6150</v>
+        <v>2750</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -9962,12 +9958,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Navegantes (BRNVT)</t>
+          <t>Miami FL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Navegantes (BRNVT)</t>
+          <t>Miami FL</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -9977,10 +9973,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1650</v>
+        <v>4750</v>
       </c>
       <c r="F43" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -9991,12 +9987,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Winnipeg</t>
+          <t>Hammad Port - QAHMD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Winnipeg</t>
+          <t>Hammad Port - QAHMD</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -10006,10 +10002,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>7450</v>
+        <v>5100</v>
       </c>
       <c r="F44" t="n">
-        <v>8700</v>
+        <v>7300</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -10020,25 +10016,25 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Rabat (MARBA)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Rabat (MARBA)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>FCL</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3450</v>
+        <v>5000</v>
       </c>
       <c r="F45" t="n">
-        <v>3799</v>
+        <v>6150</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -10049,12 +10045,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Aqaba - JOAQJ</t>
+          <t>Lima (PELIM)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Aqaba - JOAQJ</t>
+          <t>Lima (PELIM)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -10064,10 +10060,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5050</v>
+        <v>4650</v>
       </c>
       <c r="F46" t="n">
-        <v>7250</v>
+        <v>5150</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -10078,25 +10074,25 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Winnipeg Terminal</t>
+          <t>Vienna (ATVIE)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Winnipeg Terminal</t>
+          <t>Vienna (ATVIE)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>FCL</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3690</v>
+        <v>2750</v>
       </c>
       <c r="F47" t="n">
-        <v>4200</v>
+        <v>3250</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -10107,12 +10103,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Imbituba (BRIBB)</t>
+          <t>Baton Rouge (USBTR)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Imbituba (BRIBB)</t>
+          <t>Baton Rouge (USBTR)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -10122,10 +10118,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1700</v>
+        <v>5500</v>
       </c>
       <c r="F48" t="n">
-        <v>2000</v>
+        <v>5700</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -10136,12 +10132,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Praga (CZPRG)</t>
+          <t>Manaus (BRMAO)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Praga (CZPRG)</t>
+          <t>Manaus (BRMAO)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -10151,10 +10147,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="F49" t="n">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -10165,12 +10161,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Caracas (VECCS)</t>
+          <t>Hyderabad - INHYD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Caracas (VECCS)</t>
+          <t>Hyderabad - INHYD</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -10180,10 +10176,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4850</v>
+        <v>3050</v>
       </c>
       <c r="F50" t="n">
-        <v>5600</v>
+        <v>3950</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -10194,25 +10190,25 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Tacoma (USTIW)</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tacoma (USTIW)</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>FCL</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>9350</v>
+        <v>3360</v>
       </c>
       <c r="F51" t="n">
-        <v>9950</v>
+        <v>3745</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -10223,12 +10219,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Soedertaelje (SESOE)</t>
+          <t>Rio Grande ( BRRIG)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Soedertaelje (SESOE)</t>
+          <t>Rio Grande ( BRRIG)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -10238,10 +10234,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>3400</v>
+        <v>1650</v>
       </c>
       <c r="F52" t="n">
-        <v>4600</v>
+        <v>1950</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -10252,12 +10248,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Lima (PELIM)</t>
+          <t>Itapoa (BRIOA)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Lima (PELIM)</t>
+          <t>Itapoa (BRIOA)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -10267,10 +10263,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4650</v>
+        <v>1800</v>
       </c>
       <c r="F53" t="n">
-        <v>5150</v>
+        <v>2150</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -10281,12 +10277,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Quito (ECUIO)</t>
+          <t>Sohar - OMSOH</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Quito (ECUIO)</t>
+          <t>Sohar - OMSOH</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -10296,10 +10292,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4950</v>
+        <v>2000</v>
       </c>
       <c r="F54" t="n">
-        <v>5450</v>
+        <v>2500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -10310,22 +10306,26 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Nairobi Terminal</t>
+          <t>Saskatoon</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Nairobi Terminal</t>
+          <t>Saskatoon</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+          <t>FCL</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>7200</v>
+      </c>
+      <c r="F55" t="n">
+        <v>8350</v>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
           <t>Only available in one source</t>
@@ -10335,12 +10335,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Portland (Via NY)</t>
+          <t>Nassau Bahamas</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Portland (Via NY)</t>
+          <t>Nassau Bahamas</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -10350,10 +10350,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>9290</v>
+        <v>12290</v>
       </c>
       <c r="F56" t="n">
-        <v>9770</v>
+        <v>15970</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -10364,12 +10364,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Johannesburg (ZAJBN)</t>
+          <t>Caracas (VECCS)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Johannesburg (ZAJBN)</t>
+          <t>Caracas (VECCS)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -10379,10 +10379,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3100</v>
+        <v>4850</v>
       </c>
       <c r="F57" t="n">
-        <v>3650</v>
+        <v>5600</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -10393,12 +10393,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Rio Haina (DOHAI)</t>
+          <t>Adelaide (AUADL)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Rio Haina (DOHAI)</t>
+          <t>Adelaide (AUADL)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -10408,10 +10408,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>3900</v>
+        <v>2350</v>
       </c>
       <c r="F58" t="n">
-        <v>4400</v>
+        <v>2350</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -10422,12 +10422,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Tianjin - CNTXG</t>
+          <t>Imbituba (BRIBB)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tianjin - CNTXG</t>
+          <t>Imbituba (BRIBB)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -10437,10 +10437,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2150</v>
+        <v>1700</v>
       </c>
       <c r="F59" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -10451,26 +10451,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Ambarli/Istambul - TRIST</t>
+          <t>Halifax Port</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ambarli/Istambul - TRIST</t>
+          <t>Halifax Port</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>FCL</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>2250</v>
-      </c>
-      <c r="F60" t="n">
-        <v>2850</v>
-      </c>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
           <t>Only available in one source</t>
@@ -10480,12 +10476,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Nhava Sheva - INNSA</t>
+          <t>Navegantes (BRNVT)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Nhava Sheva - INNSA</t>
+          <t>Navegantes (BRNVT)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -10495,10 +10491,10 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2850</v>
+        <v>1650</v>
       </c>
       <c r="F61" t="n">
-        <v>5450</v>
+        <v>2000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -10509,12 +10505,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Port of Spain (TTPOS)</t>
+          <t>Jeddah - SAJED</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Port of Spain (TTPOS)</t>
+          <t>Jeddah - SAJED</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -10524,10 +10520,10 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5000</v>
+        <v>2900</v>
       </c>
       <c r="F62" t="n">
-        <v>5400</v>
+        <v>2750</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -10538,12 +10534,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Regina</t>
+          <t>Beirut - LBBEY</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Regina</t>
+          <t>Beirut - LBBEY</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -10553,10 +10549,10 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>7150</v>
+        <v>3200</v>
       </c>
       <c r="F63" t="n">
-        <v>8350</v>
+        <v>3700</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -10567,12 +10563,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Muscat - OMMCT</t>
+          <t>Luanda (AOLAD)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Muscat - OMMCT</t>
+          <t>Luanda (AOLAD)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -10582,10 +10578,10 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3200</v>
+        <v>4750</v>
       </c>
       <c r="F64" t="n">
-        <v>2900</v>
+        <v>5700</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -10596,12 +10592,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Pecem (BRPEC)</t>
+          <t>Vigo (ESVGO)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Pecem (BRPEC)</t>
+          <t>Vigo (ESVGO)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -10611,10 +10607,10 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2150</v>
+        <v>3100</v>
       </c>
       <c r="F65" t="n">
-        <v>2550</v>
+        <v>3450</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -10625,25 +10621,25 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Edmonton</t>
+          <t>Bremen</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Edmonton</t>
+          <t>Bremen</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>FCL</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>7000</v>
+        <v>3180</v>
       </c>
       <c r="F66" t="n">
-        <v>8000</v>
+        <v>3380</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -10654,25 +10650,25 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Piraeus (GRPIR)</t>
+          <t>Portland (Via NY)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Piraeus (GRPIR)</t>
+          <t>Portland (Via NY)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>FCL</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2300</v>
+        <v>9290</v>
       </c>
       <c r="F67" t="n">
-        <v>2750</v>
+        <v>9770</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -10683,25 +10679,25 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Jakarta - IDJKT</t>
+          <t>Santo Tomas De Castilla</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Jakarta - IDJKT</t>
+          <t>Santo Tomas De Castilla</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>FCL</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2150</v>
+        <v>5615</v>
       </c>
       <c r="F68" t="n">
-        <v>2350</v>
+        <v>6055</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -10712,12 +10708,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Hyderabad - INHYD</t>
+          <t>Pecem (BRPEC)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Hyderabad - INHYD</t>
+          <t>Pecem (BRPEC)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -10727,10 +10723,10 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>3050</v>
+        <v>2150</v>
       </c>
       <c r="F69" t="n">
-        <v>3950</v>
+        <v>2550</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -10741,12 +10737,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Montevideo (UYMVD)</t>
+          <t>Phoenix (USPHX)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Montevideo (UYMVD)</t>
+          <t>Phoenix (USPHX)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -10756,10 +10752,10 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1900</v>
+        <v>6550</v>
       </c>
       <c r="F70" t="n">
-        <v>2200</v>
+        <v>6800</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -10770,12 +10766,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Casablanca (MACAS)</t>
+          <t>Ambarli/Istambul - TRIST</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Casablanca (MACAS)</t>
+          <t>Ambarli/Istambul - TRIST</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -10785,10 +10781,10 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>2400</v>
+        <v>2250</v>
       </c>
       <c r="F71" t="n">
-        <v>3050</v>
+        <v>2850</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -10799,25 +10795,25 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Shuwaikh Port - KWSWK</t>
+          <t>Cartagena Port Colombia (COCTG)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Shuwaikh Port - KWSWK</t>
+          <t>Cartagena Port Colombia (COCTG)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>FCL</t>
+          <t>AiresDS</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>5200</v>
+        <v>3019</v>
       </c>
       <c r="F72" t="n">
-        <v>6750</v>
+        <v>3118</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -10828,25 +10824,25 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Santo Tomas De Castilla</t>
+          <t>Koper (SIKOP)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Santo Tomas De Castilla</t>
+          <t>Koper (SIKOP)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>FCL</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>5615</v>
+        <v>2550</v>
       </c>
       <c r="F73" t="n">
-        <v>6055</v>
+        <v>2850</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -10857,12 +10853,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Luanda (AOLAD)</t>
+          <t>Casablanca (MACAS)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Luanda (AOLAD)</t>
+          <t>Casablanca (MACAS)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -10872,10 +10868,10 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4750</v>
+        <v>2400</v>
       </c>
       <c r="F74" t="n">
-        <v>5700</v>
+        <v>3050</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -10886,12 +10882,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Kansas City (USKCK)</t>
+          <t>Thessaloniki (GRSKG)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Kansas City (USKCK)</t>
+          <t>Thessaloniki (GRSKG)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -10901,10 +10897,10 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>7150</v>
+        <v>3100</v>
       </c>
       <c r="F75" t="n">
-        <v>7350</v>
+        <v>4250</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -10915,25 +10911,25 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Poti - GEPTI</t>
+          <t>Montoir</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Poti - GEPTI</t>
+          <t>Montoir</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>FCL</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2300</v>
+        <v>3465</v>
       </c>
       <c r="F76" t="n">
-        <v>2550</v>
+        <v>4450</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -10944,12 +10940,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Willemstad (CWWIL)</t>
+          <t>Shuwaikh Port - KWSWK</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Willemstad (CWWIL)</t>
+          <t>Shuwaikh Port - KWSWK</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -10959,10 +10955,10 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6900</v>
+        <v>5200</v>
       </c>
       <c r="F77" t="n">
-        <v>8250</v>
+        <v>6750</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -10973,12 +10969,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Agadir (MAAGA)</t>
+          <t>Winnipeg</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Agadir (MAAGA)</t>
+          <t>Winnipeg</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -10988,10 +10984,10 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>2150</v>
+        <v>7450</v>
       </c>
       <c r="F78" t="n">
-        <v>2400</v>
+        <v>8700</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -11002,12 +10998,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Dar Es Salamm (TZDAR)</t>
+          <t>Venezia (ITVCE)</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Dar Es Salamm (TZDAR)</t>
+          <t>Venezia (ITVCE)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -11017,10 +11013,10 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>5150</v>
+        <v>2280</v>
       </c>
       <c r="F79" t="n">
-        <v>6000</v>
+        <v>2750</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -11031,26 +11027,22 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Itapoa (BRIOA)</t>
+          <t>Nairobi Terminal</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Itapoa (BRIOA)</t>
+          <t>Nairobi Terminal</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>FCL</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>1800</v>
-      </c>
-      <c r="F80" t="n">
-        <v>2150</v>
-      </c>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
           <t>Only available in one source</t>
@@ -11060,22 +11052,26 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Lagos</t>
+          <t>Bruselas (BEBRU)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Lagos</t>
+          <t>Bruselas (BEBRU)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
+          <t>FCL</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3450</v>
+      </c>
       <c r="G81" t="inlineStr">
         <is>
           <t>Only available in one source</t>
@@ -11085,12 +11081,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Koper (SIKOP)</t>
+          <t>Quito (ECUIO)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Koper (SIKOP)</t>
+          <t>Quito (ECUIO)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -11100,10 +11096,10 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>2550</v>
+        <v>4950</v>
       </c>
       <c r="F82" t="n">
-        <v>2850</v>
+        <v>5450</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -11114,12 +11110,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>cincinnati (USCVG)</t>
+          <t>Tacoma (USTIW)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>cincinnati (USCVG)</t>
+          <t>Tacoma (USTIW)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -11129,10 +11125,10 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6900</v>
+        <v>9350</v>
       </c>
       <c r="F83" t="n">
-        <v>7150</v>
+        <v>9950</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -11143,26 +11139,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Hong Kong - HKHKG</t>
+          <t>Cagliaria</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Hong Kong - HKHKG</t>
+          <t>Cagliaria</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>FCL</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>1900</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2100</v>
-      </c>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
           <t>Only available in one source</t>
@@ -11172,12 +11164,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Saskatoon</t>
+          <t>Edmonton</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Saskatoon</t>
+          <t>Edmonton</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -11187,10 +11179,10 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="F85" t="n">
-        <v>8350</v>
+        <v>8000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -11201,25 +11193,25 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Venezia (ITVCE)</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Venezia (ITVCE)</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>FCL</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2280</v>
+        <v>3450</v>
       </c>
       <c r="F86" t="n">
-        <v>2750</v>
+        <v>3799</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -11230,12 +11222,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Vigo (ESVGO)</t>
+          <t>Yokohama - JPYOK</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Vigo (ESVGO)</t>
+          <t>Yokohama - JPYOK</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -11245,10 +11237,10 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>3100</v>
+        <v>2150</v>
       </c>
       <c r="F87" t="n">
-        <v>3450</v>
+        <v>2300</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -11259,25 +11251,25 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Montoir</t>
+          <t>Agadir (MAAGA)</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Montoir</t>
+          <t>Agadir (MAAGA)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>FCL</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>3465</v>
+        <v>2150</v>
       </c>
       <c r="F88" t="n">
-        <v>4450</v>
+        <v>2400</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -11288,26 +11280,22 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Phoenix (USPHX)</t>
+          <t>Edmonton Terminal</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Phoenix (USPHX)</t>
+          <t>Edmonton Terminal</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>FCL</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>6550</v>
-      </c>
-      <c r="F89" t="n">
-        <v>6800</v>
-      </c>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
           <t>Only available in one source</t>
@@ -11317,12 +11305,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Rio Grande ( BRRIG)</t>
+          <t>Toronto (CATOR)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Rio Grande ( BRRIG)</t>
+          <t>Toronto (CATOR)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -11332,10 +11320,10 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1650</v>
+        <v>6250</v>
       </c>
       <c r="F90" t="n">
-        <v>1950</v>
+        <v>6650</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -11346,12 +11334,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Durban (ZADUR)</t>
+          <t>Bangkok - THBKK</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Durban (ZADUR)</t>
+          <t>Bangkok - THBKK</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -11361,10 +11349,10 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="F91" t="n">
-        <v>2900</v>
+        <v>2350</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -11375,12 +11363,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Bangkok - THBKK</t>
+          <t>Jakarta - IDJKT</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Bangkok - THBKK</t>
+          <t>Jakarta - IDJKT</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -11390,7 +11378,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2200</v>
+        <v>2150</v>
       </c>
       <c r="F92" t="n">
         <v>2350</v>
@@ -11404,25 +11392,25 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Nassau Bahamas</t>
+          <t>Montevideo (UYMVD)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Nassau Bahamas</t>
+          <t>Montevideo (UYMVD)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>FCL</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>12290</v>
+        <v>1900</v>
       </c>
       <c r="F93" t="n">
-        <v>15970</v>
+        <v>2200</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -11433,12 +11421,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Apapa (NGAPP)</t>
+          <t>Tegucigalpa (HNTGU)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Apapa (NGAPP)</t>
+          <t>Tegucigalpa (HNTGU)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -11448,10 +11436,10 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>4550</v>
+        <v>5600</v>
       </c>
       <c r="F94" t="n">
-        <v>5700</v>
+        <v>6150</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -11462,22 +11450,26 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Halifax Port</t>
+          <t>Doha - QADOH</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Halifax Port</t>
+          <t>Doha - QADOH</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
+          <t>FCL</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>2900</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2750</v>
+      </c>
       <c r="G95" t="inlineStr">
         <is>
           <t>Only available in one source</t>
@@ -11487,12 +11479,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Minneapolis (USMES)</t>
+          <t>Muscat - OMMCT</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Minneapolis (USMES)</t>
+          <t>Muscat - OMMCT</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -11502,10 +11494,10 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>7500</v>
+        <v>3200</v>
       </c>
       <c r="F96" t="n">
-        <v>7850</v>
+        <v>2900</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -11516,12 +11508,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Doha - QADOH</t>
+          <t>Tanger (MAPTM)</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Doha - QADOH</t>
+          <t>Tanger (MAPTM)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -11531,10 +11523,10 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>2900</v>
+        <v>2550</v>
       </c>
       <c r="F97" t="n">
-        <v>2750</v>
+        <v>2950</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -11545,25 +11537,25 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Nassau Bahamas NEW PROVIDENCE ISLAND (BSNAS)</t>
+          <t>Soedertaelje (SESOE)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Nassau Bahamas NEW PROVIDENCE ISLAND (BSNAS)</t>
+          <t>Soedertaelje (SESOE)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>AiresDS</t>
+          <t>FCL</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>10770</v>
+        <v>3400</v>
       </c>
       <c r="F98" t="n">
-        <v>13993</v>
+        <v>4600</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -11574,25 +11566,25 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Alger (DZALG)</t>
+          <t>Luxemburgo</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Alger (DZALG)</t>
+          <t>Luxemburgo</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>FCL</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2950</v>
+        <v>3910</v>
       </c>
       <c r="F99" t="n">
-        <v>3450</v>
+        <v>4075</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -11603,12 +11595,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sohar - OMSOH</t>
+          <t>Rio Haina (DOHAI)</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Sohar - OMSOH</t>
+          <t>Rio Haina (DOHAI)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -11618,10 +11610,10 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>2000</v>
+        <v>3900</v>
       </c>
       <c r="F100" t="n">
-        <v>2500</v>
+        <v>4400</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -11632,22 +11624,26 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Bassens</t>
+          <t>Nassau Bahamas NEW PROVIDENCE ISLAND (BSNAS)</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Bassens</t>
+          <t>Nassau Bahamas NEW PROVIDENCE ISLAND (BSNAS)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
+          <t>AiresDS</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>10770</v>
+      </c>
+      <c r="F101" t="n">
+        <v>13993</v>
+      </c>
       <c r="G101" t="inlineStr">
         <is>
           <t>Only available in one source</t>
@@ -11657,22 +11653,26 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Cagliaria</t>
+          <t>Durban (ZADUR)</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Cagliaria</t>
+          <t>Durban (ZADUR)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
+          <t>FCL</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2900</v>
+      </c>
       <c r="G102" t="inlineStr">
         <is>
           <t>Only available in one source</t>
@@ -11826,7 +11826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11852,6 +11852,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>port_code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>source</t>
         </is>
       </c>
@@ -11868,7 +11873,8 @@
       <c r="C2" t="n">
         <v>5998</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -11886,7 +11892,8 @@
       <c r="C3" t="n">
         <v>4865</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -11904,7 +11911,8 @@
       <c r="C4" t="n">
         <v>2114</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -11922,7 +11930,8 @@
       <c r="C5" t="n">
         <v>1600</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -11940,7 +11949,8 @@
       <c r="C6" t="n">
         <v>5797</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -11958,7 +11968,8 @@
       <c r="C7" t="n">
         <v>2444</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -11976,7 +11987,8 @@
       <c r="C8" t="n">
         <v>3412</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -11994,7 +12006,8 @@
       <c r="C9" t="n">
         <v>2720</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12012,7 +12025,8 @@
       <c r="C10" t="n">
         <v>1500</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12030,7 +12044,8 @@
       <c r="C11" t="n">
         <v>4465</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12048,7 +12063,8 @@
       <c r="C12" t="n">
         <v>1600</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12066,7 +12082,8 @@
       <c r="C13" t="n">
         <v>2362</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12084,7 +12101,8 @@
       <c r="C14" t="n">
         <v>4129</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12102,7 +12120,8 @@
       <c r="C15" t="n">
         <v>3961</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12120,7 +12139,8 @@
       <c r="C16" t="n">
         <v>3118</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12138,7 +12158,8 @@
       <c r="C17" t="n">
         <v>4397</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12156,7 +12177,8 @@
       <c r="C18" t="n">
         <v>2720</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12174,7 +12196,8 @@
       <c r="C19" t="n">
         <v>2264</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12192,7 +12215,8 @@
       <c r="C20" t="n">
         <v>2866</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12210,7 +12234,8 @@
       <c r="C21" t="n">
         <v>3569</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12228,7 +12253,8 @@
       <c r="C22" t="n">
         <v>3282</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12246,7 +12272,8 @@
       <c r="C23" t="n">
         <v>2164</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12264,7 +12291,8 @@
       <c r="C24" t="n">
         <v>1964</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12282,7 +12310,8 @@
       <c r="C25" t="n">
         <v>2000</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12300,7 +12329,8 @@
       <c r="C26" t="n">
         <v>3961</v>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12318,7 +12348,8 @@
       <c r="C27" t="n">
         <v>2444</v>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12336,7 +12367,8 @@
       <c r="C28" t="n">
         <v>1600</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12354,7 +12386,8 @@
       <c r="C29" t="n">
         <v>3820</v>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12372,7 +12405,8 @@
       <c r="C30" t="n">
         <v>861</v>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12390,7 +12424,8 @@
       <c r="C31" t="n">
         <v>4820</v>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12408,7 +12443,8 @@
       <c r="C32" t="n">
         <v>2904</v>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12426,7 +12462,8 @@
       <c r="C33" t="n">
         <v>6272</v>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12444,7 +12481,8 @@
       <c r="C34" t="n">
         <v>2625</v>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12462,7 +12500,8 @@
       <c r="C35" t="n">
         <v>3528</v>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12480,7 +12519,8 @@
       <c r="C36" t="n">
         <v>5782</v>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12498,7 +12538,8 @@
       <c r="C37" t="n">
         <v>1186</v>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12516,7 +12557,8 @@
       <c r="C38" t="n">
         <v>2114</v>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12534,7 +12576,8 @@
       <c r="C39" t="n">
         <v>3812</v>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12552,7 +12595,8 @@
       <c r="C40" t="n">
         <v>1964</v>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12570,7 +12614,8 @@
       <c r="C41" t="n">
         <v>1536</v>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12588,7 +12633,8 @@
       <c r="C42" t="n">
         <v>4170</v>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12606,7 +12652,8 @@
       <c r="C43" t="n">
         <v>3804</v>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12624,7 +12671,8 @@
       <c r="C44" t="n">
         <v>1678</v>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12642,7 +12690,8 @@
       <c r="C45" t="n">
         <v>4397</v>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12660,7 +12709,8 @@
       <c r="C46" t="n">
         <v>6539</v>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12678,7 +12728,8 @@
       <c r="C47" t="n">
         <v>3257</v>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12696,7 +12747,8 @@
       <c r="C48" t="n">
         <v>6201</v>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12714,7 +12766,8 @@
       <c r="C49" t="n">
         <v>13993</v>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12732,7 +12785,8 @@
       <c r="C50" t="n">
         <v>3820</v>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12750,7 +12804,8 @@
       <c r="C51" t="n">
         <v>4820</v>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12768,7 +12823,8 @@
       <c r="C52" t="n">
         <v>4820</v>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12786,7 +12842,8 @@
       <c r="C53" t="n">
         <v>6962</v>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12804,7 +12861,8 @@
       <c r="C54" t="n">
         <v>4820</v>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12822,7 +12880,8 @@
       <c r="C55" t="n">
         <v>4285</v>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12840,7 +12899,8 @@
       <c r="C56" t="n">
         <v>3320</v>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12858,7 +12918,8 @@
       <c r="C57" t="n">
         <v>3897</v>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12876,7 +12937,8 @@
       <c r="C58" t="n">
         <v>3126</v>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12894,7 +12956,8 @@
       <c r="C59" t="n">
         <v>3320</v>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12912,7 +12975,8 @@
       <c r="C60" t="n">
         <v>3354</v>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12930,7 +12994,8 @@
       <c r="C61" t="n">
         <v>1600</v>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12948,7 +13013,8 @@
       <c r="C62" t="n">
         <v>1048</v>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12966,7 +13032,8 @@
       <c r="C63" t="n">
         <v>3961</v>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -12984,7 +13051,8 @@
       <c r="C64" t="n">
         <v>1540</v>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -13002,7 +13070,8 @@
       <c r="C65" t="n">
         <v>3897</v>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -13020,7 +13089,8 @@
       <c r="C66" t="n">
         <v>1938</v>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -13038,7 +13108,8 @@
       <c r="C67" t="n">
         <v>1732</v>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -13056,7 +13127,8 @@
       <c r="C68" t="n">
         <v>5298</v>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -13074,7 +13146,8 @@
       <c r="C69" t="n">
         <v>1020</v>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -13092,7 +13165,8 @@
       <c r="C70" t="n">
         <v>2782</v>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -13110,7 +13184,8 @@
       <c r="C71" t="n">
         <v>2362</v>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -13128,7 +13203,8 @@
       <c r="C72" t="n">
         <v>3412</v>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -13146,7 +13222,8 @@
       <c r="C73" t="n">
         <v>1964</v>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -13164,7 +13241,8 @@
       <c r="C74" t="n">
         <v>5184</v>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -13182,7 +13260,8 @@
       <c r="C75" t="n">
         <v>3158</v>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>AiresDS</t>
         </is>
@@ -13199,7 +13278,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D182"/>
+  <dimension ref="A1:E182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13225,6 +13304,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>port_code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>source</t>
         </is>
       </c>
@@ -13241,7 +13325,8 @@
       <c r="C2" t="n">
         <v>2350</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13259,7 +13344,8 @@
       <c r="C3" t="n">
         <v>2350</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13277,7 +13363,8 @@
       <c r="C4" t="n">
         <v>2400</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13295,7 +13382,8 @@
       <c r="C5" t="n">
         <v>6200</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13313,7 +13401,8 @@
       <c r="C6" t="n">
         <v>2650</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13331,7 +13420,8 @@
       <c r="C7" t="n">
         <v>3450</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13349,7 +13439,8 @@
       <c r="C8" t="n">
         <v>2850</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13367,7 +13458,8 @@
       <c r="C9" t="n">
         <v>2850</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13385,7 +13477,8 @@
       <c r="C10" t="n">
         <v>2550</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13403,7 +13496,8 @@
       <c r="C11" t="n">
         <v>2350</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13421,7 +13515,8 @@
       <c r="C12" t="n">
         <v>5700</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13439,7 +13534,8 @@
       <c r="C13" t="n">
         <v>7250</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13457,7 +13553,8 @@
       <c r="C14" t="n">
         <v>4750</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13475,7 +13572,8 @@
       <c r="C15" t="n">
         <v>2150</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13493,7 +13591,8 @@
       <c r="C16" t="n">
         <v>6500</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13511,7 +13610,8 @@
       <c r="C17" t="n">
         <v>5800</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13529,7 +13629,8 @@
       <c r="C18" t="n">
         <v>2350</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13547,7 +13648,8 @@
       <c r="C19" t="n">
         <v>2200</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13565,7 +13667,8 @@
       <c r="C20" t="n">
         <v>5700</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13583,7 +13686,8 @@
       <c r="C21" t="n">
         <v>3700</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13601,7 +13705,8 @@
       <c r="C22" t="n">
         <v>5750</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13619,7 +13724,8 @@
       <c r="C23" t="n">
         <v>6250</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13637,7 +13743,8 @@
       <c r="C24" t="n">
         <v>2350</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13655,7 +13762,8 @@
       <c r="C25" t="n">
         <v>3200</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13673,7 +13781,8 @@
       <c r="C26" t="n">
         <v>3450</v>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13691,7 +13800,8 @@
       <c r="C27" t="n">
         <v>4450</v>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13707,7 +13817,8 @@
       <c r="C28" t="n">
         <v>4000</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13725,7 +13836,8 @@
       <c r="C29" t="n">
         <v>2300</v>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13743,7 +13855,8 @@
       <c r="C30" t="n">
         <v>8100</v>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13761,7 +13874,8 @@
       <c r="C31" t="n">
         <v>7500</v>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13779,7 +13893,8 @@
       <c r="C32" t="n">
         <v>4450</v>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13797,7 +13912,8 @@
       <c r="C33" t="n">
         <v>5600</v>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13815,7 +13931,8 @@
       <c r="C34" t="n">
         <v>4100</v>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13833,7 +13950,8 @@
       <c r="C35" t="n">
         <v>3050</v>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13851,7 +13969,8 @@
       <c r="C36" t="n">
         <v>4250</v>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13869,7 +13988,8 @@
       <c r="C37" t="n">
         <v>5550</v>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13887,7 +14007,8 @@
       <c r="C38" t="n">
         <v>6450</v>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13905,7 +14026,8 @@
       <c r="C39" t="n">
         <v>7000</v>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13923,7 +14045,8 @@
       <c r="C40" t="n">
         <v>7150</v>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13941,7 +14064,8 @@
       <c r="C41" t="n">
         <v>7150</v>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13957,7 +14081,8 @@
       <c r="C42" t="n">
         <v>3600</v>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13975,7 +14100,8 @@
       <c r="C43" t="n">
         <v>3950</v>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -13993,7 +14119,8 @@
       <c r="C44" t="n">
         <v>4500</v>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14011,7 +14138,8 @@
       <c r="C45" t="n">
         <v>5900</v>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14029,7 +14157,8 @@
       <c r="C46" t="n">
         <v>6000</v>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14047,7 +14176,8 @@
       <c r="C47" t="n">
         <v>7400</v>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14065,7 +14195,8 @@
       <c r="C48" t="n">
         <v>8150</v>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14083,7 +14214,8 @@
       <c r="C49" t="n">
         <v>2750</v>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14101,7 +14233,8 @@
       <c r="C50" t="n">
         <v>2800</v>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14119,7 +14252,8 @@
       <c r="C51" t="n">
         <v>2900</v>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14137,7 +14271,8 @@
       <c r="C52" t="n">
         <v>2900</v>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14155,7 +14290,8 @@
       <c r="C53" t="n">
         <v>8000</v>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14173,7 +14309,8 @@
       <c r="C54" t="n">
         <v>4000</v>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14191,7 +14328,8 @@
       <c r="C55" t="n">
         <v>4400</v>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14209,7 +14347,8 @@
       <c r="C56" t="n">
         <v>5100</v>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14227,7 +14366,8 @@
       <c r="C57" t="n">
         <v>3250</v>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14245,7 +14385,8 @@
       <c r="C58" t="n">
         <v>3100</v>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14263,7 +14404,8 @@
       <c r="C59" t="n">
         <v>2550</v>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14281,7 +14423,8 @@
       <c r="C60" t="n">
         <v>2900</v>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14299,7 +14442,8 @@
       <c r="C61" t="n">
         <v>5250</v>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14317,7 +14461,8 @@
       <c r="C62" t="n">
         <v>2750</v>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14335,7 +14480,8 @@
       <c r="C63" t="n">
         <v>2750</v>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14353,7 +14499,8 @@
       <c r="C64" t="n">
         <v>2850</v>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14371,7 +14518,8 @@
       <c r="C65" t="n">
         <v>4450</v>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14389,7 +14537,8 @@
       <c r="C66" t="n">
         <v>2450</v>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14407,7 +14556,8 @@
       <c r="C67" t="n">
         <v>2600</v>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14425,7 +14575,8 @@
       <c r="C68" t="n">
         <v>7300</v>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14443,7 +14594,8 @@
       <c r="C69" t="n">
         <v>2100</v>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14461,7 +14613,8 @@
       <c r="C70" t="n">
         <v>5100</v>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14479,7 +14632,8 @@
       <c r="C71" t="n">
         <v>3950</v>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14497,7 +14651,8 @@
       <c r="C72" t="n">
         <v>2000</v>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14515,7 +14670,8 @@
       <c r="C73" t="n">
         <v>2750</v>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14533,7 +14689,8 @@
       <c r="C74" t="n">
         <v>2000</v>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14551,7 +14708,8 @@
       <c r="C75" t="n">
         <v>2150</v>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14569,7 +14727,8 @@
       <c r="C76" t="n">
         <v>6000</v>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14587,7 +14746,8 @@
       <c r="C77" t="n">
         <v>2350</v>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14605,7 +14765,8 @@
       <c r="C78" t="n">
         <v>2350</v>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14623,7 +14784,8 @@
       <c r="C79" t="n">
         <v>2350</v>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14641,7 +14803,8 @@
       <c r="C80" t="n">
         <v>2750</v>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14659,7 +14822,8 @@
       <c r="C81" t="n">
         <v>3650</v>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14677,7 +14841,8 @@
       <c r="C82" t="n">
         <v>7350</v>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14695,7 +14860,8 @@
       <c r="C83" t="n">
         <v>3650</v>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14713,7 +14879,8 @@
       <c r="C84" t="n">
         <v>2350</v>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14731,7 +14898,8 @@
       <c r="C85" t="n">
         <v>2350</v>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14749,7 +14917,8 @@
       <c r="C86" t="n">
         <v>2850</v>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14767,7 +14936,8 @@
       <c r="C87" t="n">
         <v>5600</v>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14785,7 +14955,8 @@
       <c r="C88" t="n">
         <v>3300</v>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14803,7 +14974,8 @@
       <c r="C89" t="n">
         <v>5150</v>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14821,7 +14993,8 @@
       <c r="C90" t="n">
         <v>2550</v>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14839,7 +15012,8 @@
       <c r="C91" t="n">
         <v>2750</v>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14857,7 +15031,8 @@
       <c r="C92" t="n">
         <v>2600</v>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14875,7 +15050,8 @@
       <c r="C93" t="n">
         <v>3000</v>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14893,7 +15069,8 @@
       <c r="C94" t="n">
         <v>7500</v>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14911,7 +15088,8 @@
       <c r="C95" t="n">
         <v>5000</v>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14929,7 +15107,8 @@
       <c r="C96" t="n">
         <v>7750</v>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14947,7 +15126,8 @@
       <c r="C97" t="n">
         <v>5700</v>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14965,7 +15145,8 @@
       <c r="C98" t="n">
         <v>3050</v>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -14983,7 +15164,8 @@
       <c r="C99" t="n">
         <v>3350</v>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15001,7 +15183,8 @@
       <c r="C100" t="n">
         <v>2800</v>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15019,7 +15202,8 @@
       <c r="C101" t="n">
         <v>7600</v>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15037,7 +15221,8 @@
       <c r="C102" t="n">
         <v>3900</v>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15055,7 +15240,8 @@
       <c r="C103" t="n">
         <v>2400</v>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15073,7 +15259,8 @@
       <c r="C104" t="n">
         <v>4250</v>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15091,7 +15278,8 @@
       <c r="C105" t="n">
         <v>2450</v>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15109,7 +15297,8 @@
       <c r="C106" t="n">
         <v>5200</v>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15127,7 +15316,8 @@
       <c r="C107" t="n">
         <v>5000</v>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15145,7 +15335,8 @@
       <c r="C108" t="n">
         <v>7850</v>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15163,7 +15354,8 @@
       <c r="C109" t="n">
         <v>2200</v>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15181,7 +15373,8 @@
       <c r="C110" t="n">
         <v>3350</v>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15199,7 +15392,8 @@
       <c r="C111" t="n">
         <v>3200</v>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15217,7 +15411,8 @@
       <c r="C112" t="n">
         <v>6650</v>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15235,7 +15430,8 @@
       <c r="C113" t="n">
         <v>2900</v>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15253,7 +15449,8 @@
       <c r="C114" t="n">
         <v>2600</v>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15271,7 +15468,8 @@
       <c r="C115" t="n">
         <v>2000</v>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15289,7 +15487,8 @@
       <c r="C116" t="n">
         <v>5450</v>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15307,7 +15506,8 @@
       <c r="C117" t="n">
         <v>5000</v>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15325,7 +15525,8 @@
       <c r="C118" t="n">
         <v>5800</v>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15343,7 +15544,8 @@
       <c r="C119" t="n">
         <v>5450</v>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15361,7 +15563,8 @@
       <c r="C120" t="n">
         <v>6000</v>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15379,7 +15582,8 @@
       <c r="C121" t="n">
         <v>6750</v>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15397,7 +15601,8 @@
       <c r="C122" t="n">
         <v>4700</v>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15415,7 +15620,8 @@
       <c r="C123" t="n">
         <v>2950</v>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15433,7 +15639,8 @@
       <c r="C124" t="n">
         <v>2550</v>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15451,7 +15658,8 @@
       <c r="C125" t="n">
         <v>5450</v>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15469,7 +15677,8 @@
       <c r="C126" t="n">
         <v>6800</v>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15487,7 +15696,8 @@
       <c r="C127" t="n">
         <v>2750</v>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15505,7 +15715,8 @@
       <c r="C128" t="n">
         <v>6750</v>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15523,7 +15734,8 @@
       <c r="C129" t="n">
         <v>5400</v>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15541,7 +15753,8 @@
       <c r="C130" t="n">
         <v>5400</v>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15559,7 +15772,8 @@
       <c r="C131" t="n">
         <v>2550</v>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15577,7 +15791,8 @@
       <c r="C132" t="n">
         <v>3600</v>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15595,7 +15810,8 @@
       <c r="C133" t="n">
         <v>4950</v>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15613,7 +15829,8 @@
       <c r="C134" t="n">
         <v>4300</v>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15631,7 +15848,8 @@
       <c r="C135" t="n">
         <v>5450</v>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15649,7 +15867,8 @@
       <c r="C136" t="n">
         <v>6150</v>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15667,7 +15886,8 @@
       <c r="C137" t="n">
         <v>3950</v>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15685,7 +15905,8 @@
       <c r="C138" t="n">
         <v>8350</v>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15703,7 +15924,8 @@
       <c r="C139" t="n">
         <v>2250</v>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15721,7 +15943,8 @@
       <c r="C140" t="n">
         <v>1950</v>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15739,7 +15962,8 @@
       <c r="C141" t="n">
         <v>4400</v>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15757,7 +15981,8 @@
       <c r="C142" t="n">
         <v>3450</v>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15775,7 +16000,8 @@
       <c r="C143" t="n">
         <v>2300</v>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15793,7 +16019,8 @@
       <c r="C144" t="n">
         <v>7500</v>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15811,7 +16038,8 @@
       <c r="C145" t="n">
         <v>2500</v>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15829,7 +16057,8 @@
       <c r="C146" t="n">
         <v>4500</v>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15847,7 +16076,8 @@
       <c r="C147" t="n">
         <v>5000</v>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15865,7 +16095,8 @@
       <c r="C148" t="n">
         <v>5000</v>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15883,7 +16114,8 @@
       <c r="C149" t="n">
         <v>5200</v>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15901,7 +16133,8 @@
       <c r="C150" t="n">
         <v>4400</v>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15919,7 +16152,8 @@
       <c r="C151" t="n">
         <v>1900</v>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15937,7 +16171,8 @@
       <c r="C152" t="n">
         <v>8350</v>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15955,7 +16190,8 @@
       <c r="C153" t="n">
         <v>5400</v>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15973,7 +16209,8 @@
       <c r="C154" t="n">
         <v>7100</v>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -15991,7 +16228,8 @@
       <c r="C155" t="n">
         <v>2400</v>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16009,7 +16247,8 @@
       <c r="C156" t="n">
         <v>6750</v>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16027,7 +16266,8 @@
       <c r="C157" t="n">
         <v>2850</v>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16045,7 +16285,8 @@
       <c r="C158" t="n">
         <v>2100</v>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16063,7 +16304,8 @@
       <c r="C159" t="n">
         <v>4600</v>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16081,7 +16323,8 @@
       <c r="C160" t="n">
         <v>2500</v>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16099,7 +16342,8 @@
       <c r="C161" t="n">
         <v>2900</v>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16117,7 +16361,8 @@
       <c r="C162" t="n">
         <v>2270</v>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16135,7 +16380,8 @@
       <c r="C163" t="n">
         <v>2450</v>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16153,7 +16399,8 @@
       <c r="C164" t="n">
         <v>9950</v>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16171,7 +16418,8 @@
       <c r="C165" t="n">
         <v>2950</v>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16189,7 +16437,8 @@
       <c r="C166" t="n">
         <v>6150</v>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16207,7 +16456,8 @@
       <c r="C167" t="n">
         <v>4250</v>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16225,7 +16475,8 @@
       <c r="C168" t="n">
         <v>3050</v>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16243,7 +16494,8 @@
       <c r="C169" t="n">
         <v>2300</v>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16261,7 +16513,8 @@
       <c r="C170" t="n">
         <v>6650</v>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16279,7 +16532,8 @@
       <c r="C171" t="n">
         <v>3800</v>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16297,7 +16551,8 @@
       <c r="C172" t="n">
         <v>2450</v>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16315,7 +16570,8 @@
       <c r="C173" t="n">
         <v>6450</v>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16333,7 +16589,8 @@
       <c r="C174" t="n">
         <v>7050</v>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16351,7 +16608,8 @@
       <c r="C175" t="n">
         <v>2750</v>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16369,7 +16627,8 @@
       <c r="C176" t="n">
         <v>4100</v>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16387,7 +16646,8 @@
       <c r="C177" t="n">
         <v>3250</v>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16405,7 +16665,8 @@
       <c r="C178" t="n">
         <v>3450</v>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16423,7 +16684,8 @@
       <c r="C179" t="n">
         <v>8250</v>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16441,7 +16703,8 @@
       <c r="C180" t="n">
         <v>8700</v>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16459,7 +16722,8 @@
       <c r="C181" t="n">
         <v>2300</v>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16477,7 +16741,8 @@
       <c r="C182" t="n">
         <v>3600</v>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr">
         <is>
           <t>FCL</t>
         </is>
@@ -16494,7 +16759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16520,6 +16785,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>port_code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>source</t>
         </is>
       </c>
@@ -16536,7 +16806,8 @@
       <c r="C2" t="n">
         <v>3750</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -16554,7 +16825,8 @@
       <c r="C3" t="n">
         <v>3331</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -16572,7 +16844,8 @@
       <c r="C4" t="n">
         <v>2790</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -16590,7 +16863,8 @@
       <c r="C5" t="n">
         <v>6890</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -16608,7 +16882,8 @@
       <c r="C6" t="n">
         <v>3650</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -16626,7 +16901,8 @@
       <c r="C7" t="n">
         <v>6850</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -16644,7 +16920,8 @@
       <c r="C8" t="n">
         <v>4610</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -16662,7 +16939,8 @@
       <c r="C9" t="n">
         <v>6090</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -16680,7 +16958,8 @@
       <c r="C10" t="n">
         <v>3160</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -16694,7 +16973,8 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -16708,7 +16988,8 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -16726,7 +17007,8 @@
       <c r="C13" t="n">
         <v>3380</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -16744,7 +17026,8 @@
       <c r="C14" t="n">
         <v>2795</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -16762,7 +17045,8 @@
       <c r="C15" t="n">
         <v>3717</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -16780,7 +17064,8 @@
       <c r="C16" t="n">
         <v>2930</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -16798,7 +17083,8 @@
       <c r="C17" t="n">
         <v>5225</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -16816,7 +17102,8 @@
       <c r="C18" t="n">
         <v>2700</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -16830,7 +17117,8 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -16848,7 +17136,8 @@
       <c r="C20" t="n">
         <v>5060</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -16866,7 +17155,8 @@
       <c r="C21" t="n">
         <v>5010</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -16884,7 +17174,8 @@
       <c r="C22" t="n">
         <v>5500</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -16902,7 +17193,8 @@
       <c r="C23" t="n">
         <v>5465</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -16920,7 +17212,8 @@
       <c r="C24" t="n">
         <v>6850</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -16938,7 +17231,8 @@
       <c r="C25" t="n">
         <v>7000</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -16956,7 +17250,8 @@
       <c r="C26" t="n">
         <v>7150</v>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -16974,7 +17269,8 @@
       <c r="C27" t="n">
         <v>3390</v>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -16992,7 +17288,8 @@
       <c r="C28" t="n">
         <v>4050</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17010,7 +17307,8 @@
       <c r="C29" t="n">
         <v>5890</v>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17028,7 +17326,8 @@
       <c r="C30" t="n">
         <v>7390</v>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17046,7 +17345,8 @@
       <c r="C31" t="n">
         <v>7110</v>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17064,7 +17364,8 @@
       <c r="C32" t="n">
         <v>4770</v>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17078,7 +17379,8 @@
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17092,7 +17394,8 @@
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17110,7 +17413,8 @@
       <c r="C35" t="n">
         <v>4500</v>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17128,7 +17432,8 @@
       <c r="C36" t="n">
         <v>3360</v>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17146,7 +17451,8 @@
       <c r="C37" t="n">
         <v>4140</v>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17164,7 +17470,8 @@
       <c r="C38" t="n">
         <v>3160</v>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17182,7 +17489,8 @@
       <c r="C39" t="n">
         <v>3400</v>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17200,7 +17508,8 @@
       <c r="C40" t="n">
         <v>4220</v>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17218,7 +17527,8 @@
       <c r="C41" t="n">
         <v>5060</v>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17236,7 +17546,8 @@
       <c r="C42" t="n">
         <v>3650</v>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17250,7 +17561,8 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17268,7 +17580,8 @@
       <c r="C44" t="n">
         <v>2795</v>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17286,7 +17599,8 @@
       <c r="C45" t="n">
         <v>5030</v>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17304,7 +17618,8 @@
       <c r="C46" t="n">
         <v>3890</v>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17322,7 +17637,8 @@
       <c r="C47" t="n">
         <v>6020</v>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17340,7 +17656,8 @@
       <c r="C48" t="n">
         <v>4635</v>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17358,7 +17675,8 @@
       <c r="C49" t="n">
         <v>7370</v>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17376,7 +17694,8 @@
       <c r="C50" t="n">
         <v>3735</v>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17394,7 +17713,8 @@
       <c r="C51" t="n">
         <v>4625</v>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17408,7 +17728,8 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17426,7 +17747,8 @@
       <c r="C53" t="n">
         <v>2795</v>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17440,7 +17762,8 @@
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17458,7 +17781,8 @@
       <c r="C55" t="n">
         <v>3310</v>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17476,7 +17800,8 @@
       <c r="C56" t="n">
         <v>5010</v>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17494,7 +17819,8 @@
       <c r="C57" t="n">
         <v>3160</v>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17512,7 +17838,8 @@
       <c r="C58" t="n">
         <v>2730</v>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17530,7 +17857,8 @@
       <c r="C59" t="n">
         <v>5385</v>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17548,7 +17876,8 @@
       <c r="C60" t="n">
         <v>5385</v>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17566,7 +17895,8 @@
       <c r="C61" t="n">
         <v>7770</v>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17584,7 +17914,8 @@
       <c r="C62" t="n">
         <v>4075</v>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17602,7 +17933,8 @@
       <c r="C63" t="n">
         <v>3590</v>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17616,7 +17948,8 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17634,7 +17967,8 @@
       <c r="C65" t="n">
         <v>2775</v>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17652,7 +17986,8 @@
       <c r="C66" t="n">
         <v>5490</v>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17670,7 +18005,8 @@
       <c r="C67" t="n">
         <v>7635</v>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17688,7 +18024,8 @@
       <c r="C68" t="n">
         <v>3560</v>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17706,7 +18043,8 @@
       <c r="C69" t="n">
         <v>5015</v>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17724,7 +18062,8 @@
       <c r="C70" t="n">
         <v>3799</v>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17742,7 +18081,8 @@
       <c r="C71" t="n">
         <v>4450</v>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17756,7 +18096,8 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17770,7 +18111,8 @@
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17788,7 +18130,8 @@
       <c r="C74" t="n">
         <v>3920</v>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17806,7 +18149,8 @@
       <c r="C75" t="n">
         <v>15970</v>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17824,7 +18168,8 @@
       <c r="C76" t="n">
         <v>7360</v>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17842,7 +18187,8 @@
       <c r="C77" t="n">
         <v>5015</v>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17860,7 +18206,8 @@
       <c r="C78" t="n">
         <v>6045</v>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17878,7 +18225,8 @@
       <c r="C79" t="n">
         <v>6035</v>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17896,7 +18244,8 @@
       <c r="C80" t="n">
         <v>6840</v>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17914,7 +18263,8 @@
       <c r="C81" t="n">
         <v>8157</v>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17932,7 +18282,8 @@
       <c r="C82" t="n">
         <v>5930</v>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17950,7 +18301,8 @@
       <c r="C83" t="n">
         <v>5115</v>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17968,7 +18320,8 @@
       <c r="C84" t="n">
         <v>6961</v>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -17986,7 +18339,8 @@
       <c r="C85" t="n">
         <v>9770</v>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18004,7 +18358,8 @@
       <c r="C86" t="n">
         <v>5035</v>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18022,7 +18377,8 @@
       <c r="C87" t="n">
         <v>3745</v>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18036,7 +18392,8 @@
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18054,7 +18411,8 @@
       <c r="C89" t="n">
         <v>5490</v>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18072,7 +18430,8 @@
       <c r="C90" t="n">
         <v>5490</v>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18090,7 +18449,8 @@
       <c r="C91" t="n">
         <v>4510</v>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18108,7 +18468,8 @@
       <c r="C92" t="n">
         <v>5490</v>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18126,7 +18487,8 @@
       <c r="C93" t="n">
         <v>8650</v>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18144,7 +18506,8 @@
       <c r="C94" t="n">
         <v>2775</v>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18162,7 +18525,8 @@
       <c r="C95" t="n">
         <v>4000</v>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18180,7 +18544,8 @@
       <c r="C96" t="n">
         <v>4300</v>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18198,7 +18563,8 @@
       <c r="C97" t="n">
         <v>2295</v>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18216,7 +18582,8 @@
       <c r="C98" t="n">
         <v>2350</v>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18230,7 +18597,8 @@
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18248,7 +18616,8 @@
       <c r="C100" t="n">
         <v>2400</v>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18266,7 +18635,8 @@
       <c r="C101" t="n">
         <v>4870</v>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18280,7 +18650,8 @@
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18298,7 +18669,8 @@
       <c r="C103" t="n">
         <v>5820</v>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18316,7 +18688,8 @@
       <c r="C104" t="n">
         <v>6230</v>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18334,7 +18707,8 @@
       <c r="C105" t="n">
         <v>5490</v>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18352,7 +18726,8 @@
       <c r="C106" t="n">
         <v>6055</v>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18370,7 +18745,8 @@
       <c r="C107" t="n">
         <v>3535</v>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18388,7 +18764,8 @@
       <c r="C108" t="n">
         <v>4350</v>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18406,7 +18783,8 @@
       <c r="C109" t="n">
         <v>10290</v>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18424,7 +18802,8 @@
       <c r="C110" t="n">
         <v>2290</v>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18442,7 +18821,8 @@
       <c r="C111" t="n">
         <v>6390</v>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18460,7 +18840,8 @@
       <c r="C112" t="n">
         <v>2475</v>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18478,7 +18859,8 @@
       <c r="C113" t="n">
         <v>3975</v>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18496,7 +18878,8 @@
       <c r="C114" t="n">
         <v>4300</v>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18514,7 +18897,8 @@
       <c r="C115" t="n">
         <v>4600</v>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18532,7 +18916,8 @@
       <c r="C116" t="n">
         <v>7800</v>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18550,7 +18935,8 @@
       <c r="C117" t="n">
         <v>3160</v>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18564,7 +18950,8 @@
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr">
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18578,7 +18965,8 @@
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr">
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
@@ -18596,7 +18984,8 @@
       <c r="C120" t="n">
         <v>4200</v>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
